--- a/Electromagnetic-Lab/7/实验7 圆极化波的产生和检测.xlsx
+++ b/Electromagnetic-Lab/7/实验7 圆极化波的产生和检测.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\Lab\bupt-EE-Lab\Electromagnetic-Lab\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\bupt-EE-Lab\Electromagnetic-Lab\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221EED3-3DA6-4640-A705-3F76A77B9698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8DF43-33C0-4C50-A4D4-5C9CCE6129E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="13680" windowHeight="5680" xr2:uid="{67AE6B28-C472-41EA-9564-197B804B9D39}"/>
+    <workbookView xWindow="1884" yWindow="0" windowWidth="13680" windowHeight="5676" xr2:uid="{67AE6B28-C472-41EA-9564-197B804B9D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min/max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椭圆度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +60,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -65,9 +94,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,7 +271,7 @@
                   <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>230</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>250</c:v>
@@ -287,22 +319,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.2</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19</c:v>
@@ -311,49 +343,49 @@
                   <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>21.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.4</c:v>
+                  <c:v>21.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>18.8</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.2</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>19.399999999999999</c:v>
@@ -365,34 +397,34 @@
                   <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.6</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.8</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.6</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23</c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.8</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,6 +515,7 @@
         <c:axId val="1652893520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1487,306 +1520,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2695D67-290E-4A38-BE20-B54DF8F7D76D}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B1" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>60</v>
       </c>
-      <c r="B6">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B6" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>70</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>80</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>18.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1">
         <v>21.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>130</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>140</v>
-      </c>
-      <c r="B14">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>150</v>
-      </c>
-      <c r="B15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>160</v>
       </c>
-      <c r="B16">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B16" s="1">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>170</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>180</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>190</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>210</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>220</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>230</v>
+      </c>
+      <c r="B23" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>240</v>
+      </c>
+      <c r="B24" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>250</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>260</v>
+      </c>
+      <c r="B26" s="1">
         <v>20.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>180</v>
-      </c>
-      <c r="B18">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>190</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="B20">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>270</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>280</v>
+      </c>
+      <c r="B28" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>290</v>
+      </c>
+      <c r="B29" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>300</v>
+      </c>
+      <c r="B30" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>310</v>
+      </c>
+      <c r="B31" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>320</v>
+      </c>
+      <c r="B32" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>330</v>
+      </c>
+      <c r="B33" s="1">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>340</v>
+      </c>
+      <c r="B34" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>350</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>360</v>
+      </c>
+      <c r="B36" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>MIN(B1:B36)</f>
         <v>18.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>210</v>
-      </c>
-      <c r="B21">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>220</v>
-      </c>
-      <c r="B22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>230</v>
-      </c>
-      <c r="B23">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>230</v>
-      </c>
-      <c r="B24">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>250</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>260</v>
-      </c>
-      <c r="B26">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>270</v>
-      </c>
-      <c r="B27">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>280</v>
-      </c>
-      <c r="B28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>290</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>300</v>
-      </c>
-      <c r="B30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>310</v>
-      </c>
-      <c r="B31">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>320</v>
-      </c>
-      <c r="B32">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>330</v>
-      </c>
-      <c r="B33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>340</v>
-      </c>
-      <c r="B34">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>350</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>360</v>
-      </c>
-      <c r="B36">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <f>AVERAGE(B1:B36)</f>
-        <v>20.616666666666664</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f>MAX(B1:B36)</f>
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IMDIV(B39,B40)</f>
+        <v>0.862385321100917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <f>SQRT(B41)</f>
+        <v>0.92864703795409642</v>
       </c>
     </row>
   </sheetData>
